--- a/tie2140/tutorials/tie2140-24-tut-3-lab-1-solutions.xlsx
+++ b/tie2140/tutorials/tie2140-24-tut-3-lab-1-solutions.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\_Eng Econ\_tie2140\2024 BTech\tutorials\tut 3 lab 1 basic finanical functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F913198F-4E83-424E-9CBD-7A6A056B7603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978825CC-4807-422D-B2C0-936458239552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="13280" windowHeight="6090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="13280" windowHeight="6090" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About me" sheetId="15" r:id="rId1"/>
-    <sheet name="Lab1 Q1" sheetId="1" r:id="rId2"/>
-    <sheet name="Lab1 Q2" sheetId="10" r:id="rId3"/>
-    <sheet name="Lab1 Q3" sheetId="11" r:id="rId4"/>
-    <sheet name="Lab1 Q4" sheetId="12" r:id="rId5"/>
-    <sheet name="Lab 1 Q5" sheetId="14" r:id="rId6"/>
+    <sheet name="Lab1 Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab1 Q2" sheetId="10" r:id="rId2"/>
+    <sheet name="Lab1 Q3" sheetId="11" r:id="rId3"/>
+    <sheet name="Lab1 Q4" sheetId="12" r:id="rId4"/>
+    <sheet name="Lab 1 Q5" sheetId="14" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>P</t>
   </si>
@@ -135,9 +134,6 @@
     <t>Total Capital Investment</t>
   </si>
   <si>
-    <t>Income and Expenses</t>
-  </si>
-  <si>
     <t>Annual revenue from sale</t>
   </si>
   <si>
@@ -285,13 +281,22 @@
     <t>Useful Life (years)</t>
   </si>
   <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Matric Number:</t>
-  </si>
-  <si>
-    <t>Lab 1: Using Excel Financial Functions</t>
+    <t>Annual Income and Expenses</t>
+  </si>
+  <si>
+    <t>TIE2140 Tutorial 3 Lab 1 Qustion 1</t>
+  </si>
+  <si>
+    <t>TIE2140 Tutorial 3 Lab 1 Qustion 2</t>
+  </si>
+  <si>
+    <t>TIE2140 Tutorial 3 Lab 1 Qustion 3</t>
+  </si>
+  <si>
+    <t>TIE2140 Tutorial 3 Lab 1 Qustion 4</t>
+  </si>
+  <si>
+    <t>TIE2140 Tutorial 3 Lab 1 Qustion 5</t>
   </si>
 </sst>
 </file>
@@ -305,7 +310,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -373,12 +378,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -534,7 +534,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -570,7 +570,6 @@
     <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -628,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -682,15 +680,11 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1135,172 +1129,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" style="114" customWidth="1"/>
-    <col min="2" max="2" width="27" style="114" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="114"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A4" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="115" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-    </row>
-    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-    </row>
-    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1310,25 +1144,19 @@
     <col min="3" max="3" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1336,23 +1164,23 @@
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
@@ -1360,11 +1188,11 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>200000</v>
       </c>
       <c r="C6" s="3"/>
@@ -1372,11 +1200,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>676</v>
       </c>
       <c r="C7" s="3"/>
@@ -1384,11 +1212,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>-400000</v>
       </c>
       <c r="C8" s="3"/>
@@ -1396,7 +1224,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1404,11 +1232,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>60</v>
       </c>
       <c r="C10" s="3"/>
@@ -1416,8 +1244,8 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="17">
@@ -1429,8 +1257,8 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="25">
@@ -1443,22 +1271,22 @@
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1470,44 +1298,44 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>200000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>-400000</v>
       </c>
     </row>
@@ -1516,36 +1344,36 @@
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <f>RATE(B23, B20, B19, B21, 0, 0.1)</f>
         <v>9.1874235525925899E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -1564,7 +1392,7 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3"/>
@@ -1573,10 +1401,10 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="37">
         <v>200000</v>
       </c>
       <c r="C31" s="3"/>
@@ -1585,10 +1413,10 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>676</v>
       </c>
       <c r="C32" s="3"/>
@@ -1597,10 +1425,10 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>-400000</v>
       </c>
       <c r="C33" s="3"/>
@@ -1609,10 +1437,10 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="95">
+      <c r="B34" s="93">
         <v>0.02</v>
       </c>
       <c r="C34" s="3"/>
@@ -1621,27 +1449,27 @@
       <c r="F34" s="3"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="97">
+      <c r="A36" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="95">
         <f>NPER(B34, B32, B31, B33, 0)</f>
         <v>31.213916219796324</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="B37" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1705,13 +1533,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1723,45 +1551,37 @@
     <col min="5" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
-        <v>83</v>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1770,7 +1590,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1603,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1616,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1629,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1822,7 +1642,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1655,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1848,7 +1668,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1861,7 +1681,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1694,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1883,7 +1703,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -1897,30 +1717,31 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="44"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>84</v>
+      <c r="A17" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
@@ -2139,7 +1960,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="103" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="27">
@@ -2148,11 +1969,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2161,13 +1982,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2176,23 +1997,23 @@
     <col min="2" max="2" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -2291,10 +2112,10 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="108"/>
+      <c r="A12" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="106"/>
       <c r="C12" s="8"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2313,55 +2134,55 @@
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="32"/>
+      <c r="A17" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="104">
         <f>RATE(B6, B8+B9, B5, B7, 0, 0.1)</f>
         <v>0.27144615420137219</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="B19" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2370,23 +2191,23 @@
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -2396,10 +2217,10 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>0.15</v>
       </c>
       <c r="C3" s="5"/>
@@ -2407,10 +2228,10 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="50">
         <v>10</v>
       </c>
       <c r="C4" s="5"/>
@@ -2425,10 +2246,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5"/>
@@ -2436,10 +2257,10 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <v>-300000</v>
       </c>
       <c r="C7" s="5"/>
@@ -2447,10 +2268,10 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <v>-600000</v>
       </c>
       <c r="C8" s="5"/>
@@ -2458,10 +2279,10 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>-250000</v>
       </c>
       <c r="C9" s="5"/>
@@ -2469,10 +2290,10 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>-100000</v>
       </c>
       <c r="C10" s="5"/>
@@ -2480,40 +2301,40 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <f>SUM(B7:B10)</f>
         <v>-1250000</v>
       </c>
-      <c r="C11" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="C11" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:14" ht="6.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="57"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="54">
+      <c r="A14" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="53">
         <v>750000</v>
       </c>
       <c r="C14" s="5"/>
@@ -2521,10 +2342,10 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="54">
+      <c r="A15" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="53">
         <v>-475000</v>
       </c>
       <c r="C15" s="5"/>
@@ -2532,40 +2353,40 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="62">
+      <c r="A16" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="61">
         <f>SUM(B14:B15)</f>
         <v>275000</v>
       </c>
-      <c r="C16" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
+      <c r="C16" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
     </row>
     <row r="17" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="58"/>
+      <c r="A18" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="57"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="54">
+      <c r="A19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="53">
         <v>400000</v>
       </c>
       <c r="C19" s="5"/>
@@ -2573,10 +2394,10 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="55">
+      <c r="A20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="54">
         <v>350000</v>
       </c>
       <c r="C20" s="5"/>
@@ -2584,10 +2405,10 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="55">
+      <c r="A21" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="54">
         <v>50000</v>
       </c>
       <c r="C21" s="5"/>
@@ -2595,10 +2416,10 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="56">
+      <c r="A22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="55">
         <f xml:space="preserve"> -B10</f>
         <v>100000</v>
       </c>
@@ -2607,29 +2428,29 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="61">
+      <c r="A23" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="60">
         <f>SUM(B19:B22)</f>
         <v>900000</v>
       </c>
-      <c r="C23" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
+      <c r="C23" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:5" ht="8.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63" t="s">
-        <v>61</v>
+      <c r="A25" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
@@ -2637,10 +2458,10 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="84">
+      <c r="A26" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="82">
         <f xml:space="preserve"> B16 - PMT(B3, B4, B11, B23, 0)</f>
         <v>70261.778118845337</v>
       </c>
@@ -2650,12 +2471,12 @@
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
+      <c r="B27" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
     </row>
     <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
@@ -2665,8 +2486,8 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="100" t="s">
-        <v>59</v>
+      <c r="A29" s="98" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2674,19 +2495,19 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="99"/>
+      <c r="A30" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="97"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="110">
+      <c r="B31" s="108">
         <f>RATE(B4, B16, B11, B23, 0, 0.1)</f>
         <v>0.2097194889591554</v>
       </c>
@@ -2696,12 +2517,12 @@
     </row>
     <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
-      <c r="B32" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
+      <c r="B32" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
     </row>
     <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
@@ -2897,12 +2718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2914,23 +2735,23 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -2939,148 +2760,148 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="66"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>70</v>
+      <c r="D3" s="71" t="s">
+        <v>69</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="74">
+      <c r="A4" s="72">
         <v>0</v>
       </c>
-      <c r="B4" s="75">
+      <c r="B4" s="73">
         <v>-65000</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="74">
         <f>B4</f>
         <v>-65000</v>
       </c>
-      <c r="D4" s="103" t="str">
+      <c r="D4" s="101" t="str">
         <f>IF(C4&gt;=0, "+ve", "-ve")</f>
         <v>-ve</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
+      <c r="E4" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="74">
+      <c r="A5" s="72">
         <v>1</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="73">
         <v>25000</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="74">
         <f xml:space="preserve"> $B$4 + NPV($B$11, $B$5:B5)</f>
         <v>-43813.559322033892</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="101" t="str">
         <f t="shared" ref="D5:D9" si="0">IF(C5&gt;=0, "+ve", "-ve")</f>
         <v>-ve</v>
       </c>
-      <c r="E5" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="E5" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="74">
+      <c r="A6" s="72">
         <v>2</v>
       </c>
-      <c r="B6" s="75">
+      <c r="B6" s="73">
         <v>30000</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="74">
         <f xml:space="preserve"> $B$4 + NPV($B$11, $B$5:B6)</f>
         <v>-22268.026429187012</v>
       </c>
-      <c r="D6" s="103" t="str">
+      <c r="D6" s="101" t="str">
         <f t="shared" si="0"/>
         <v>-ve</v>
       </c>
-      <c r="E6" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="E6" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="72">
         <v>3</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="73">
         <v>30000</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="74">
         <f xml:space="preserve"> $B$4 + NPV($B$11, $B$5:B7)</f>
         <v>-4009.1002488082959</v>
       </c>
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="101" t="str">
         <f t="shared" si="0"/>
         <v>-ve</v>
       </c>
-      <c r="E7" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="E7" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="74">
+      <c r="A8" s="72">
         <v>4</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="73">
         <v>40000</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="74">
         <f xml:space="preserve"> $B$4 + NPV($B$11, $B$5:B8)</f>
         <v>16622.454757269341</v>
       </c>
-      <c r="D8" s="103" t="str">
+      <c r="D8" s="101" t="str">
         <f t="shared" si="0"/>
         <v>+ve</v>
       </c>
-      <c r="E8" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
+      <c r="E8" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="74">
+      <c r="A9" s="72">
         <v>5</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="73">
         <v>46000</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="74">
         <f xml:space="preserve"> $B$4 + NPV($B$11, $B$5:B9)</f>
         <v>36729.478703870453</v>
       </c>
-      <c r="D9" s="103" t="str">
+      <c r="D9" s="101" t="str">
         <f t="shared" si="0"/>
         <v>+ve</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="E9" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -3090,10 +2911,10 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="75">
         <v>0.18</v>
       </c>
       <c r="C11" s="1"/>
@@ -3101,10 +2922,10 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="78">
+      <c r="A12" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="76">
         <v>5</v>
       </c>
       <c r="C12" s="1"/>
@@ -3112,10 +2933,10 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="77">
+      <c r="A13" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="75">
         <v>0.12</v>
       </c>
       <c r="C13" s="1"/>
@@ -3123,10 +2944,10 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="77">
+      <c r="A14" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="75">
         <v>0.18</v>
       </c>
       <c r="C14" s="1"/>
@@ -3134,108 +2955,108 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="94">
+      <c r="B17" s="92">
         <f>B4 + NPV(B11, B5:B9)</f>
         <v>36729.478703870453</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="79">
         <f xml:space="preserve"> -FV(B11, B12, 0, B17, 0)</f>
         <v>84028.149808000002</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="C18" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="80">
         <f xml:space="preserve"> IRR(B4:B9, 0.1)</f>
         <v>0.38402692155310425</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="C21" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="72"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="82">
+      <c r="B24" s="80">
         <f>MIRR(B4:B9, B13, B14)</f>
         <v>0.29059120081625589</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="C24" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -3246,7 +3067,7 @@
     </row>
     <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="87"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
